--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/グループ開発/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{580FF0E4-4DEB-4488-ADFE-05EBD91D8409}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81320D94-96B0-7E4B-9D4F-BA1EA3A222A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="ER" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -72,13 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ERカラム一覧</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,10 +90,6 @@
   </si>
   <si>
     <t>PHONE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -134,10 +124,6 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -162,13 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データの順番</t>
-    <rPh sb="4" eb="6">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>英数字5文字</t>
     <rPh sb="0" eb="3">
       <t>エイスウジ</t>
@@ -179,9 +158,385 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID(主)</t>
-    <rPh sb="3" eb="4">
-      <t>シュ</t>
+    <t>カラム一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時、パスワード変更時使用</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人確認時使用</t>
+    <rPh sb="0" eb="2">
+      <t>ホンニンカクニンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人特定用</t>
+    <rPh sb="0" eb="2">
+      <t>コジｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントを識別する一意な数字</t>
+    <rPh sb="0" eb="2">
+      <t>イチイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報を交換した相手アカウントのID</t>
+    <rPh sb="0" eb="1">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮ID</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ID</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実名</t>
+    <rPh sb="0" eb="2">
+      <t>ジツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意科目</t>
+    <rPh sb="0" eb="2">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR画像のURL</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンのURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙々or話しながら</t>
+    <rPh sb="0" eb="1">
+      <t>モクモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコンor手書き</t>
+    <rPh sb="0" eb="2">
+      <t>テガキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良or創造</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事or仕事以外</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイデアor完成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目内容</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKIN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRUIT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮情報のテーブルへの外部キー</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実情報のテーブルへの外部キー</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR_URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICON_URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目内容</t>
+    <rPh sb="0" eb="2">
+      <t>コウモクナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARTNER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GROUP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S_or_T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P_or_P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I_or_M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W_or_O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I_or_C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した項目を識別するためのID</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが登録した相手のID</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録後、こちらで５つ仮項目を作成するが、ユーザによって項目が追加、または削除される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目を作成した場合、項目を</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISPLAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社や所属してる組織の名前</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意な教科、もしくは分野</t>
+    <rPh sb="0" eb="2">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙々と集中して作業をする方が得意か、人と話しながらの方が仕事が捗るか</t>
+    <rPh sb="0" eb="1">
+      <t>モクモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコンでの入力が得意か、手書きでの記録が得意か</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に存在するものを改良する工夫が得意か、全く世の中にないアイデアを出すのが得意か</t>
+    <rPh sb="0" eb="1">
+      <t>スデニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事で人生を充実させたいか、仕事以外で人生を充実させたいか</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初のアイデアを出す方が好きか、出たアイデアを完成させる方が好きか</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR読み込み後画面で見せていい項目ならtrue、そうでないならfalse</t>
+    <rPh sb="0" eb="1">
+      <t>ヨミコミゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -244,13 +599,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +681,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -278,6 +728,529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1282700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014838E1-47C2-B442-AFA3-C57052681D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4394200" y="1320800"/>
+          <a:ext cx="431800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469EE65-185F-F64C-A9F8-0CF06CFA63A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4813300" y="1320800"/>
+          <a:ext cx="12700" cy="3721100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A9DA5D-193A-ED44-8446-11251F730EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2273300" y="762000"/>
+          <a:ext cx="812800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F8F156-3820-1240-B5E5-6E0B16B808D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2260600" y="838200"/>
+          <a:ext cx="838200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51C4843-4A09-8C47-8047-DF5D4188480A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4813300" y="5016500"/>
+          <a:ext cx="381000" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A37FB1-36D2-4649-BB7A-C76A3C141ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298700" y="2438400"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA5CEF0-C023-9A40-9B98-0F5EC9964C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298700" y="2654300"/>
+          <a:ext cx="431800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD63936-DE16-1345-88BE-EC9948D73286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="2654300"/>
+          <a:ext cx="0" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5085E4-3997-454B-A1DD-BB12267938CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="5003800"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F030D2F-0BE8-6C42-8428-F4086C06C281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4419600" y="5067300"/>
+          <a:ext cx="774700" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,25 +1550,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="92.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,169 +1588,635 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
+  <dimension ref="B3:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="19" thickBot="1">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="19" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19" thickBot="1">
+      <c r="B14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="19" thickBot="1">
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="19" thickBot="1">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="19" thickBot="1">
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="3"/>
+      <c r="F24" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="19" thickBot="1">
+      <c r="D25" s="3"/>
+      <c r="F25" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/グループ開発/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81320D94-96B0-7E4B-9D4F-BA1EA3A222A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{528F9B3E-D939-6741-9EDF-6BC04A9E12B3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -148,37 +148,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>英数字5文字</t>
-    <rPh sb="0" eb="3">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カラム一覧</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン時、パスワード変更時使用</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本人確認時使用</t>
     <rPh sb="0" eb="2">
       <t>ホンニンカクニンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個人特定用</t>
-    <rPh sb="0" eb="2">
-      <t>コジｎ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -463,13 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目を作成した場合、項目を</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>QR表示</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -537,6 +506,66 @@
     <t>QR読み込み後画面で見せていい項目ならtrue、そうでないならfalse</t>
     <rPh sb="0" eb="1">
       <t>ヨミコミゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>英数字5文字</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ハッシュ化）</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ログイン時、パスワード変更時使用</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ハッシュ化）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>個人特定用</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ハッシュ化）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>コジｎ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -545,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +589,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック (本文)"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1553,7 +1589,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1565,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1603,7 +1639,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1621,7 +1657,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1639,7 +1675,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1657,7 +1693,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1675,7 +1711,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1683,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1719,17 +1755,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1737,17 +1773,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1755,17 +1791,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1773,10 +1809,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -1789,10 +1825,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -1805,17 +1841,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1823,17 +1859,17 @@
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1841,17 +1877,17 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1859,28 +1895,26 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="12">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -1893,17 +1927,17 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1911,17 +1945,17 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1929,17 +1963,17 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1947,17 +1981,17 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1965,17 +1999,17 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1983,17 +2017,17 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2001,17 +2035,17 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2019,17 +2053,17 @@
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2056,10 +2090,10 @@
   <sheetData>
     <row r="3" spans="2:4" ht="19" thickBot="1">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2075,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="19" thickBot="1">
@@ -2083,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2098,7 +2132,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" thickBot="1">
@@ -2106,12 +2140,12 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -2119,59 +2153,59 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19" thickBot="1">
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="4:6" ht="19" thickBot="1">
       <c r="D19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="19" thickBot="1">
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="4:6">
@@ -2179,27 +2213,27 @@
         <v>6</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="4:6" ht="19" thickBot="1">
       <c r="D23" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="3"/>
       <c r="F24" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="19" thickBot="1">
       <c r="D25" s="3"/>
       <c r="F25" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="4:6">

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{528F9B3E-D939-6741-9EDF-6BC04A9E12B3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FBDA919-9806-9B45-B24A-541A58EDE0E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -566,6 +566,35 @@
     </r>
     <rPh sb="0" eb="2">
       <t>コジｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレミア終了日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレミア終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PREMIER_DAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレミア会員の終了日を登録</t>
+    <rPh sb="0" eb="2">
+      <t>カイイｎ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1586,16 +1615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="92.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2064,6 +2093,24 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2125,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2167,15 +2214,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19" thickBot="1">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" ht="19" thickBot="1">
+      <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>

--- a/DB設計書.xlsx
+++ b/DB設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snow\Desktop\webサービス作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FBDA919-9806-9B45-B24A-541A58EDE0E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{88E0BA6F-5387-453B-8C08-34FA6CD7828C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8400" windowHeight="7485" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -447,66 +447,6 @@
   </si>
   <si>
     <t>DISPLAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社や所属してる組織の名前</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>得意な教科、もしくは分野</t>
-    <rPh sb="0" eb="2">
-      <t>トクイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黙々と集中して作業をする方が得意か、人と話しながらの方が仕事が捗るか</t>
-    <rPh sb="0" eb="1">
-      <t>モクモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パソコンでの入力が得意か、手書きでの記録が得意か</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既に存在するものを改良する工夫が得意か、全く世の中にないアイデアを出すのが得意か</t>
-    <rPh sb="0" eb="1">
-      <t>スデニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕事で人生を充実させたいか、仕事以外で人生を充実させたいか</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最初のアイデアを出す方が好きか、出たアイデアを完成させる方が好きか</t>
-    <rPh sb="0" eb="2">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>QR読み込み後画面で見せていい項目ならtrue、そうでないならfalse</t>
-    <rPh sb="0" eb="1">
-      <t>ヨミコミゴ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -570,31 +510,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレミア終了日</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレミア終了日</t>
-    <rPh sb="0" eb="3">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PREMIER_DAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレミア会員の終了日を登録</t>
-    <rPh sb="0" eb="2">
-      <t>カイイｎ</t>
+    <t>QR読み込み後画面で見せていい項目ならtrue(0以外)、そうでないならfalse(0)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨミコミゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙々と集中して作業をする方が得意か、人と話しながらの方が仕事が捗るか (0~4)</t>
+    <rPh sb="0" eb="1">
+      <t>モクモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社や所属してる組織の名前 (NULL可)</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意な教科、もしくは分野 (NULL可)</t>
+    <rPh sb="0" eb="2">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコンでの入力が得意か、手書きでの記録が得意か (0~4)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に存在するものを改良する工夫が得意か、全く世の中にないアイデアを出すのが得意か (0~4)</t>
+    <rPh sb="0" eb="1">
+      <t>スデニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事で人生を充実させたいか、仕事以外で人生を充実させたいか (0~4)</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初のアイデアを出す方が好きか、出たアイデアを完成させる方が好きか (0~4)</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -729,13 +706,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +762,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,14 +1610,14 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1664,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -1704,7 +1696,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1722,7 +1714,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1740,7 +1732,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1772,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -1790,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="12" t="s">
@@ -1808,7 +1800,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -1826,7 +1818,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -1876,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -1894,7 +1886,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
@@ -1966,7 +1958,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1984,7 +1976,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1998,11 +1990,11 @@
         <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2016,11 +2008,11 @@
         <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2034,11 +2026,11 @@
         <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2052,11 +2044,11 @@
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2070,48 +2062,38 @@
         <v>68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>82</v>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2124,18 +2106,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="19" thickBot="1">
+    <row r="3" spans="2:4" ht="19.5" thickBot="1">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -2159,7 +2142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19" thickBot="1">
+    <row r="6" spans="2:4" ht="19.5" thickBot="1">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -2182,7 +2165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19" thickBot="1">
+    <row r="10" spans="2:4" ht="19.5" thickBot="1">
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2214,18 +2197,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:4" ht="19.5" thickBot="1">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="19" thickBot="1">
-      <c r="B15" s="10" t="s">
-        <v>86</v>
-      </c>
+    <row r="15" spans="2:4">
+      <c r="B15" s="9"/>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
@@ -2245,12 +2226,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="19" thickBot="1">
+    <row r="19" spans="4:6" ht="19.5" thickBot="1">
       <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="19" thickBot="1">
+    <row r="21" spans="4:6" ht="19.5" thickBot="1">
       <c r="D21" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="19" thickBot="1">
+    <row r="23" spans="4:6" ht="19.5" thickBot="1">
       <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
@@ -2280,7 +2261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="19" thickBot="1">
+    <row r="25" spans="4:6" ht="19.5" thickBot="1">
       <c r="D25" s="3"/>
       <c r="F25" s="10" t="s">
         <v>72</v>
@@ -2301,6 +2282,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>